--- a/compare-sheets/new.xlsx
+++ b/compare-sheets/new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programação\CompareSheets\compare-sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A3F56E-E8B6-4E6E-97F3-926C54120894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1923ABD3-435F-4418-8F83-B2DEC30691D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1290" windowWidth="15300" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="1695" windowWidth="15300" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>Código</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <t>Codigo</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,18 +397,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1111</v>
@@ -416,13 +416,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>2222</v>
@@ -430,13 +430,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3333</v>
@@ -444,13 +444,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>4444</v>
@@ -458,13 +458,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>5555</v>
